--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.839677666666667</v>
+        <v>1.497392666666667</v>
       </c>
       <c r="H2">
-        <v>5.519032999999999</v>
+        <v>4.492178</v>
       </c>
       <c r="I2">
-        <v>0.09177420527696697</v>
+        <v>0.07263102411830044</v>
       </c>
       <c r="J2">
-        <v>0.09177420527696695</v>
+        <v>0.07263102411830046</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02449714780933333</v>
+        <v>0.01993928074933333</v>
       </c>
       <c r="R2">
-        <v>0.220474330284</v>
+        <v>0.179453526744</v>
       </c>
       <c r="S2">
-        <v>0.09177420527696697</v>
+        <v>0.07263102411830044</v>
       </c>
       <c r="T2">
-        <v>0.09177420527696695</v>
+        <v>0.07263102411830046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,10 +608,10 @@
         <v>22.314673</v>
       </c>
       <c r="I3">
-        <v>0.3710634418367117</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="J3">
-        <v>0.3710634418367116</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.09904739522266667</v>
+        <v>0.09904739522266666</v>
       </c>
       <c r="R3">
-        <v>0.8914265570040001</v>
+        <v>0.8914265570039999</v>
       </c>
       <c r="S3">
-        <v>0.3710634418367117</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="T3">
-        <v>0.3710634418367116</v>
+        <v>0.3607910356301526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.73940533333333</v>
+        <v>0.1679733333333333</v>
       </c>
       <c r="H4">
-        <v>32.218216</v>
+        <v>0.5039199999999999</v>
       </c>
       <c r="I4">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="J4">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1430059214186667</v>
+        <v>0.002236732906666666</v>
       </c>
       <c r="R4">
-        <v>1.287053292768</v>
+        <v>0.02013059616</v>
       </c>
       <c r="S4">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="T4">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +711,31 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.028387</v>
+        <v>11.470741</v>
       </c>
       <c r="H5">
-        <v>0.085161</v>
+        <v>34.412223</v>
       </c>
       <c r="I5">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="J5">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -753,16 +756,78 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.000378001292</v>
+        <v>0.152744387156</v>
       </c>
       <c r="R5">
-        <v>0.003402011628</v>
+        <v>1.374699484404</v>
       </c>
       <c r="S5">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="T5">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.042102</v>
+      </c>
+      <c r="H6">
+        <v>0.126306</v>
+      </c>
+      <c r="I6">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="J6">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.013316</v>
+      </c>
+      <c r="N6">
+        <v>0.039948</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.0005606302319999999</v>
+      </c>
+      <c r="R6">
+        <v>0.005045672088</v>
+      </c>
+      <c r="S6">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="T6">
+        <v>0.002042157308166786</v>
       </c>
     </row>
   </sheetData>
